--- a/output/google_maps_data_Wisata_Bantul.xlsx
+++ b/output/google_maps_data_Wisata_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Wisata+Bantul/@-7.8056036,110.2400464,11z/data=!4m2!2m1!6e1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -522,25 +516,24 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>-7.865897</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.865897</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.322449</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Puspa+Gading+Tegaldowo+Bantul+Yogyakarta/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af9a976fbdd71:0x6d10233acd954cc0!8m2!3d-7.8658973!4d110.3224493!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h764h225?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Puspa+Gading+Tegaldowo+Bantul+Yogyakarta/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af9a976fbdd71:0x6d10233acd954cc0!8m2!3d-7.8658973!4d110.3224493!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h764h225?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -563,25 +556,24 @@
           <t>0877-3911-2399</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>-7.886054</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.886054</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.292266</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sendang+Ngembel/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7aff2db46a0d3b:0xd0f70d152de2869e!8m2!3d-7.8860543!4d110.2922656!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXlhemQ2TTNOM1JSQULgAQD6AQQIABBH!16s%2Fg%2F11b6_c877c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -596,25 +588,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>-7.867542</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.867542</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.286757</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Curug+Banyunibo/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8dfd6c6b72b:0x3aa1b92f3cb5ac42!8m2!3d-7.8675423!4d110.2867568!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVlVmxQY201blJSQULgAQD6AQUIvgEQQQ!16s%2Fg%2F1q5gsj2tt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Curug+Banyunibo/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8dfd6c6b72b:0x3aa1b92f3cb5ac42!8m2!3d-7.8675423!4d110.2867568!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVlVmxQY201blJSQULgAQD6AQUIvgEQQQ!16s%2Fg%2F1q5gsj2tt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -633,25 +624,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>-7.860962</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.860962</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.28709</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jurang+Pulosari/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8e091ad99b5:0x39778d3ee07cd0b7!8m2!3d-7.8609616!4d110.2870897!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUldMVmxMZVU5bkVBReABAPoBBAgAECM!16s%2Fg%2F11b6_nq6mj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jurang+Pulosari/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8e091ad99b5:0x39778d3ee07cd0b7!8m2!3d-7.8609616!4d110.2870897!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUldMVmxMZVU5bkVBReABAPoBBAgAECM!16s%2Fg%2F11b6_nq6mj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -670,25 +660,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>-7.904576</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.904576</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.381047</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Watu+Ngelak/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a544c8cf37e8d:0xb8e3904dcc7e1afa!8m2!3d-7.904576!4d110.3810468!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU54TW5SNmNuUjNSUkFC4AEA-gEECAAQMA!16s%2Fg%2F1yprv1lc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -711,25 +700,24 @@
           <t>0831-9566-6849</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>-7.927409</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.927409</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.412059</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Watu+Goyang/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a548fd0091f07:0xf2e5878e2fc74574!8m2!3d-7.9274086!4d110.4120586!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11c31tj_lg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Watu+Goyang/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a548fd0091f07:0xf2e5878e2fc74574!8m2!3d-7.9274086!4d110.4120586!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11c31tj_lg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -756,25 +744,24 @@
           <t>0895-3631-71116</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.845536</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.845536</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.337957</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Gerabah+Kasongan+Yogyakarta/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a562ec443e609:0xdd8f6df4e1b97dfc!8m2!3d-7.8455358!4d110.3379568!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hbprbclw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Gerabah+Kasongan+Yogyakarta/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a562ec443e609:0xdd8f6df4e1b97dfc!8m2!3d-7.8455358!4d110.3379568!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hbprbclw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -801,25 +788,24 @@
           <t>0856-4042-3376</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>-7.854557</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.854557</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.327063</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Jipangan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af89e80e7d611:0x8a2aa02991380880!8m2!3d-7.854557!4d110.3270628!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjJkMDAzUlRsQlJSQULgAQD6AQQIABAd!16s%2Fg%2F11c6vgz8b0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Jipangan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af89e80e7d611:0x8a2aa02991380880!8m2!3d-7.854557!4d110.3270628!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjJkMDAzUlRsQlJSQULgAQD6AQQIABAd!16s%2Fg%2F11c6vgz8b0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -838,25 +824,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.868528</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.868528</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.322138</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dewi+Gumi+(Gunung+Mijil)+Petilasan+Pangeran+Diponegoro/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af97136b8a66d:0xe4f532b6bc21314d!8m2!3d-7.8685284!4d110.3221375!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVhSEkzVDFoM0VBReABAPoBBAgAEEg!16s%2Fg%2F11j01z00cx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -871,25 +856,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.829826</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.829826</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.329439</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sendang+Kasihan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af87155555555:0xce1e35815c3b75aa!8m2!3d-7.829826!4d110.3294388!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJRTkhGdVlUVjNSUkFC4AEA-gEECAAQPg!16s%2Fg%2F1pzvhytqy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -904,25 +888,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.861964</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.861964</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.314867</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Goa+Selarong/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8bdbea8306f:0x19e7e1da633bcbb1!8m2!3d-7.8619643!4d110.314867!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySAQ9uYXR1cmVfcHJlc2VydmXgAQA!16s%2Fg%2F122t191y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Goa+Selarong/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af8bdbea8306f:0x19e7e1da633bcbb1!8m2!3d-7.8619643!4d110.314867!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySAQ9uYXR1cmVfcHJlc2VydmXgAQA!16s%2Fg%2F122t191y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -949,25 +932,24 @@
           <t>0889-5963-643</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.937673</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.937673</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.381942</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Karangtengah/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a54f779dfd8a3:0x1c94c6d568a2b581!8m2!3d-7.9376732!4d110.3819417!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlBNM0pYZFZobkVBReABAPoBBAgAEEk!16s%2Fg%2F1pzqybr71?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -982,25 +964,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.906898</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.906898</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.276636</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Mangir/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7afee6cfb26e29:0x34c25d179c2618cd!8m2!3d-7.9068983!4d110.2766362!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySAQZtdXNldW2aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnVNMTlJZW5CM1JSQULgAQD6AQQIABA1!16s%2Fg%2F11c32fdgwm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1015,25 +996,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>-7.904907</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.904907</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.38962</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Watu+Gagak/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a55e3c20d75ff:0xe32b23e43defd2e5!8m2!3d-7.9049069!4d110.3896199!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTndkVTFVTWtSQkVBReABAPoBBAgAEEU!16s%2Fg%2F11fqzn4157?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Watu+Gagak/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a55e3c20d75ff:0xe32b23e43defd2e5!8m2!3d-7.9049069!4d110.3896199!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTndkVTFVTWtSQkVBReABAPoBBAgAEEU!16s%2Fg%2F11fqzn4157?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1056,25 +1036,24 @@
           <t>0882-2520-8880</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.9</v>
+        <v>-7.897623</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.897623</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.309082</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Kajii+(Dewi+Kajii+-+Edukasi+Ikan+Hias)/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7aff55db42a7e5:0xb31e373fc1e28cad!8m2!3d-7.8976233!4d110.3090821!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUldaMlZFU0ZaM0VBReABAPoBBAhKEEM!16s%2Fg%2F11lg01qnrk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1093,25 +1072,24 @@
           <t>0857-2918-5771</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>-7.892837</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.892837</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.302484</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Kampung+Santan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7aff08f7ef2a2b:0x6360343940ff64a7!8m2!3d-7.8928375!4d110.3024844!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVjMXBmTVhsblJSQULgAQD6AQQIABA5!16s%2Fg%2F11gk8k8k5p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1130,25 +1108,24 @@
           <t>0857-2918-5771</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>-7.930867</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.930867</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.430857</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Seribu+Batu+Songgo+Langit/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a531be5da247f:0x51f131c4dc279d01!8m2!3d-7.9308668!4d110.4308565!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11gy4zj9hw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Seribu+Batu+Songgo+Langit/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a531be5da247f:0x51f131c4dc279d01!8m2!3d-7.9308668!4d110.4308565!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11gy4zj9hw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1171,25 +1148,24 @@
           <t>0877-3960-1917</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>-7.932493</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.932493</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.368461</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Kebonagung+Imogiri/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a551b479e339b:0x273dfe1a78d3b4d5!8m2!3d-7.9324935!4d110.3684608!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlNaMkl5YkdkUlJSQULgAQD6AQQIABA1!16s%2Fg%2F11bc7tg5vq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1208,25 +1184,24 @@
           <t>0819-3170-1974</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>-7.963269</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.963269</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.384258</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kedung+Tolok/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7bab2b8ff70283:0xbcbe4210c9c5f568!8m2!3d-7.9632695!4d110.3842578!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVkRFJQWkhKM1JSQULgAQD6AQQIWRA6!16s%2Fg%2F11b7ty4hsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kedung+Tolok/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7bab2b8ff70283:0xbcbe4210c9c5f568!8m2!3d-7.9632695!4d110.3842578!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVkRFJQWkhKM1JSQULgAQD6AQQIWRA6!16s%2Fg%2F11b7ty4hsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1253,25 +1228,24 @@
           <t>0818-268-151</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>-7.874923</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.874923</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.422109</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puncak+Gebang/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a56aa6dfded51:0x9899761d1890058c!8m2!3d-7.8749233!4d110.4221094!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJmYVRSUE5uWjNSUkFC4AEA-gEECAAQNQ!16s%2Fg%2F11cnc48syp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puncak+Gebang/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a56aa6dfded51:0x9899761d1890058c!8m2!3d-7.8749233!4d110.4221094!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJmYVRSUE5uWjNSUkFC4AEA-gEECAAQNQ!16s%2Fg%2F11cnc48syp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1294,25 +1268,24 @@
           <t>0856-4303-4514</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>-7.932992</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.932992</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.255069</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Lopati/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a55fec2aaf183:0xd810275298135dd8!8m2!3d-7.9329922!4d110.2550693!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkdaelZIYUVkUkVBReABAPoBBAgAEEY!16s%2Fg%2F1pzs3hzh2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1335,25 +1308,24 @@
           <t>0823-2905-5550</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>-7.902035</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.902035</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.437463</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puncak+Pinus+Becici/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a531aaaaaaaab:0x6c28149b91ea59f4!8m2!3d-7.9020355!4d110.4374627!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LY25WaFNIWjNSUkFC4AEA-gEECAAQQg!16s%2Fg%2F11h2g21vfv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puncak+Pinus+Becici/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a531aaaaaaaab:0x6c28149b91ea59f4!8m2!3d-7.9020355!4d110.4374627!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARBuYXRpb25hbF9yZXNlcnZlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LY25WaFNIWjNSUkFC4AEA-gEECAAQQg!16s%2Fg%2F11h2g21vfv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>9 jam lalu</t>
         </is>
@@ -1372,25 +1344,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.6</v>
+        <v>-7.926107</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.926107</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.430465</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hutan+Pinus+Mangunan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a536355abb129:0x9fb567811ef62e4e!8m2!3d-7.9261073!4d110.4304652!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARFyZWNyZWF0aW9uX2NlbnRlcuABAA!16s%2Fg%2F11g9w4r_1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hutan+Pinus+Mangunan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a536355abb129:0x9fb567811ef62e4e!8m2!3d-7.9261073!4d110.4304652!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARFyZWNyZWF0aW9uX2NlbnRlcuABAA!16s%2Fg%2F11g9w4r_1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>10 jam lalu</t>
         </is>
